--- a/FPS 100/Card Edge Pinouts.xlsx
+++ b/FPS 100/Card Edge Pinouts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\PDP11 Github\Floating Point Systems\FPS 100\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\FloatingPointSystems\FPS 100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17573A9A-57FB-440C-89E0-EE5BBB118BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF25FB39-07C5-4E6B-97E1-74CDC653659B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Floating Adder" sheetId="1" r:id="rId1"/>
@@ -17122,8 +17122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6CD433-413C-454C-AA0D-EACBAC7C0E34}">
   <dimension ref="B2:AD28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -18532,46 +18532,46 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:AH28"/>
+  <dimension ref="B2:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI28" sqref="AI28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="2.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="4.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="4.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="2.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="2.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5" customWidth="1"/>
-    <col min="22" max="22" width="2.5" customWidth="1"/>
-    <col min="24" max="24" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5" customWidth="1"/>
-    <col min="26" max="26" width="2.5" customWidth="1"/>
-    <col min="28" max="28" width="3.875" customWidth="1"/>
-    <col min="29" max="29" width="12.5" customWidth="1"/>
-    <col min="30" max="30" width="2.5" customWidth="1"/>
-    <col min="32" max="32" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.5" customWidth="1"/>
-    <col min="34" max="34" width="2.5" customWidth="1"/>
+    <col min="19" max="19" width="5.25" customWidth="1"/>
+    <col min="20" max="20" width="12.5" customWidth="1"/>
+    <col min="21" max="21" width="2.5" customWidth="1"/>
+    <col min="23" max="23" width="5.25" customWidth="1"/>
+    <col min="24" max="24" width="12.5" customWidth="1"/>
+    <col min="25" max="25" width="2.5" customWidth="1"/>
+    <col min="27" max="27" width="5.25" customWidth="1"/>
+    <col min="28" max="28" width="12.5" customWidth="1"/>
+    <col min="29" max="29" width="2.5" customWidth="1"/>
+    <col min="31" max="31" width="5.25" customWidth="1"/>
+    <col min="32" max="32" width="12.5" customWidth="1"/>
+    <col min="33" max="33" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34">
+    <row r="2" spans="2:33">
       <c r="B2" s="4" t="s">
         <v>1223</v>
       </c>
@@ -18606,9 +18606,8 @@
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-    </row>
-    <row r="3" spans="2:34">
+    </row>
+    <row r="3" spans="2:33">
       <c r="B3" s="2" t="s">
         <v>91</v>
       </c>
@@ -18645,48 +18644,48 @@
       <c r="P3" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="R3" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="S3" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="2" t="s">
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="2" t="s">
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>1224</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH3" s="1"/>
-    </row>
-    <row r="4" spans="2:34">
+      <c r="AG3" s="1"/>
+    </row>
+    <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -18705,36 +18704,36 @@
       <c r="N4" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="R4" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="S4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="T4" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1" t="s">
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
         <v>160</v>
       </c>
+      <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-    </row>
-    <row r="5" spans="2:34">
+    </row>
+    <row r="5" spans="2:33">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -18759,40 +18758,40 @@
       <c r="P5" s="1" t="s">
         <v>1326</v>
       </c>
+      <c r="R5" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="S5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="T5" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="V5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="W5" s="1" t="s">
-        <v>161</v>
+        <v>1227</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="Y5" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1" t="s">
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-    </row>
-    <row r="6" spans="2:34">
+    </row>
+    <row r="6" spans="2:33">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -18811,40 +18810,40 @@
       <c r="N6" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="R6" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="S6" s="1" t="s">
-        <v>137</v>
+        <v>1228</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="U6" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1" t="s">
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="Z6" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="AA6" s="1" t="s">
-        <v>187</v>
+        <v>1227</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AC6" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1" t="s">
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-    </row>
-    <row r="7" spans="2:34">
+    </row>
+    <row r="7" spans="2:33">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -18869,44 +18868,44 @@
       <c r="P7" s="1" t="s">
         <v>1327</v>
       </c>
+      <c r="R7" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="S7" s="1" t="s">
-        <v>138</v>
+        <v>1228</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="U7" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="V7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="W7" s="1" t="s">
-        <v>163</v>
+        <v>1227</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="Y7" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="Z7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="AA7" s="1" t="s">
-        <v>188</v>
+        <v>1225</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="AC7" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1" t="s">
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-    </row>
-    <row r="8" spans="2:34">
+    </row>
+    <row r="8" spans="2:33">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
@@ -18919,38 +18918,38 @@
       <c r="N8" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="R8" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="S8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="T8" s="1" t="s">
         <v>1226</v>
       </c>
+      <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+      <c r="Z8" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="AA8" s="1" t="s">
-        <v>189</v>
+        <v>1227</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AC8" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1" t="s">
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1" t="s">
         <v>214</v>
       </c>
+      <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-    </row>
-    <row r="9" spans="2:34">
+    </row>
+    <row r="9" spans="2:33">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -18963,36 +18962,36 @@
       <c r="N9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+      <c r="V9" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="W9" s="1" t="s">
-        <v>165</v>
+        <v>1227</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="Y9" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1" t="s">
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-    </row>
-    <row r="10" spans="2:34">
+    </row>
+    <row r="10" spans="2:33">
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
@@ -19005,38 +19004,38 @@
       <c r="N10" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="R10" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="S10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="T10" s="1" t="s">
         <v>1226</v>
       </c>
+      <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
+      <c r="Z10" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AA10" s="1" t="s">
-        <v>191</v>
+        <v>1227</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AC10" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1" t="s">
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-    </row>
-    <row r="11" spans="2:34">
+    </row>
+    <row r="11" spans="2:33">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
@@ -19049,32 +19048,32 @@
       <c r="N11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>167</v>
       </c>
+      <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-    </row>
-    <row r="12" spans="2:34">
+    </row>
+    <row r="12" spans="2:33">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
@@ -19087,40 +19086,40 @@
       <c r="N12" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="R12" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="S12" s="1" t="s">
-        <v>143</v>
+        <v>1227</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="U12" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1" t="s">
+      <c r="U12" s="1"/>
+      <c r="V12" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
+      <c r="Z12" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="AA12" s="1" t="s">
-        <v>193</v>
+        <v>1227</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AC12" s="1" t="s">
         <v>1337</v>
       </c>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1" t="s">
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-    </row>
-    <row r="13" spans="2:34">
+    </row>
+    <row r="13" spans="2:33">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -19133,36 +19132,36 @@
       <c r="N13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="V13" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="W13" s="1" t="s">
-        <v>169</v>
+        <v>1227</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="Y13" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1" t="s">
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-    </row>
-    <row r="14" spans="2:34">
+    </row>
+    <row r="14" spans="2:33">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -19181,36 +19180,36 @@
       <c r="N14" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="R14" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="S14" s="1" t="s">
-        <v>145</v>
+        <v>1227</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="U14" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1" t="s">
+      <c r="U14" s="1"/>
+      <c r="V14" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1" t="s">
+      <c r="Z14" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1" t="s">
+      <c r="AD14" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-    </row>
-    <row r="15" spans="2:34">
+    </row>
+    <row r="15" spans="2:33">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
@@ -19223,40 +19222,40 @@
       <c r="N15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="V15" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="W15" s="1" t="s">
-        <v>171</v>
+        <v>1227</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="Y15" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1" t="s">
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
+      <c r="AD15" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="AE15" s="1" t="s">
-        <v>221</v>
+        <v>1227</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AG15" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="AH15" s="1"/>
-    </row>
-    <row r="16" spans="2:34">
+      <c r="AG15" s="1"/>
+    </row>
+    <row r="16" spans="2:33">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -19275,36 +19274,36 @@
       <c r="N16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
+      <c r="Z16" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="AA16" s="1" t="s">
-        <v>197</v>
+        <v>1227</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AC16" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1" t="s">
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-    </row>
-    <row r="17" spans="2:34">
+    </row>
+    <row r="17" spans="2:33">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -19317,36 +19316,36 @@
       <c r="N17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
+      <c r="AD17" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="AE17" s="1" t="s">
-        <v>223</v>
+        <v>1227</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AG17" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="AH17" s="1"/>
-    </row>
-    <row r="18" spans="2:34">
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="18" spans="2:33">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -19359,40 +19358,40 @@
       <c r="N18" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="R18" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="S18" s="1" t="s">
-        <v>149</v>
+        <v>1227</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="U18" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1" t="s">
+      <c r="U18" s="1"/>
+      <c r="V18" s="1" t="s">
         <v>903</v>
       </c>
+      <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
+      <c r="Z18" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="AA18" s="1" t="s">
-        <v>199</v>
+        <v>1227</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AC18" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1" t="s">
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-    </row>
-    <row r="19" spans="2:34">
+    </row>
+    <row r="19" spans="2:33">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
@@ -19405,32 +19404,32 @@
       <c r="N19" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1" t="s">
+      <c r="AD19" s="1" t="s">
         <v>225</v>
       </c>
+      <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-    </row>
-    <row r="20" spans="2:34">
+    </row>
+    <row r="20" spans="2:33">
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
@@ -19449,36 +19448,36 @@
       <c r="N20" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="R20" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="S20" s="1" t="s">
-        <v>151</v>
+        <v>1227</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="U20" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1" t="s">
+      <c r="U20" s="1"/>
+      <c r="V20" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1" t="s">
+      <c r="AD20" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-    </row>
-    <row r="21" spans="2:34">
+    </row>
+    <row r="21" spans="2:33">
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
@@ -19491,36 +19490,36 @@
       <c r="N21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
+      <c r="AD21" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="AE21" s="1" t="s">
-        <v>227</v>
+        <v>1227</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AG21" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="AH21" s="1"/>
-    </row>
-    <row r="22" spans="2:34">
+      <c r="AG21" s="1"/>
+    </row>
+    <row r="22" spans="2:33">
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
@@ -19545,36 +19544,36 @@
       <c r="P22" s="1" t="s">
         <v>1340</v>
       </c>
+      <c r="R22" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="S22" s="1" t="s">
-        <v>153</v>
+        <v>1227</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="U22" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1" t="s">
+      <c r="U22" s="1"/>
+      <c r="V22" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1" t="s">
+      <c r="AD22" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-    </row>
-    <row r="23" spans="2:34">
+    </row>
+    <row r="23" spans="2:33">
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
@@ -19593,36 +19592,36 @@
       <c r="P23" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1" t="s">
+      <c r="V23" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1" t="s">
+      <c r="Z23" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
+      <c r="AD23" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="AE23" s="1" t="s">
-        <v>229</v>
+        <v>1227</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AG23" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="AH23" s="1"/>
-    </row>
-    <row r="24" spans="2:34">
+      <c r="AG23" s="1"/>
+    </row>
+    <row r="24" spans="2:33">
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
@@ -19647,36 +19646,36 @@
       <c r="P24" s="1" t="s">
         <v>1340</v>
       </c>
+      <c r="R24" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="S24" s="1" t="s">
-        <v>155</v>
+        <v>1227</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="U24" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1" t="s">
+      <c r="U24" s="1"/>
+      <c r="V24" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1" t="s">
+      <c r="Z24" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1" t="s">
+      <c r="AD24" s="1" t="s">
         <v>230</v>
       </c>
+      <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-    </row>
-    <row r="25" spans="2:34">
+    </row>
+    <row r="25" spans="2:33">
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
@@ -19701,40 +19700,40 @@
       <c r="P25" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
+      <c r="V25" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="W25" s="1" t="s">
-        <v>181</v>
+        <v>1227</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="Y25" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1" t="s">
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
+      <c r="AD25" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="AE25" s="1" t="s">
-        <v>231</v>
+        <v>1228</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="AG25" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="AH25" s="1"/>
-    </row>
-    <row r="26" spans="2:34">
+      <c r="AG25" s="1"/>
+    </row>
+    <row r="26" spans="2:33">
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
@@ -19759,40 +19758,40 @@
       <c r="P26" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
+      <c r="V26" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="W26" s="1" t="s">
-        <v>182</v>
+        <v>1227</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="Y26" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1" t="s">
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
+      <c r="AD26" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="AE26" s="1" t="s">
-        <v>232</v>
+        <v>1228</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="AG26" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="AH26" s="1"/>
-    </row>
-    <row r="27" spans="2:34">
+      <c r="AG26" s="1"/>
+    </row>
+    <row r="27" spans="2:33">
       <c r="B27" s="1" t="s">
         <v>24</v>
       </c>
@@ -19811,36 +19810,36 @@
       <c r="P27" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1" t="s">
+      <c r="V27" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1" t="s">
+      <c r="Z27" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
+      <c r="AD27" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="AE27" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AF27" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="AG27" s="3" t="s">
+      <c r="AF27" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="AH27" s="1"/>
-    </row>
-    <row r="28" spans="2:34">
+      <c r="AG27" s="1"/>
+    </row>
+    <row r="28" spans="2:33">
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
@@ -19859,46 +19858,46 @@
       <c r="P28" s="3" t="s">
         <v>368</v>
       </c>
+      <c r="R28" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="S28" s="1" t="s">
-        <v>159</v>
+        <v>1227</v>
       </c>
       <c r="T28" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="W28" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="U28" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="X28" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="Y28" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1" t="s">
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1" t="s">
         <v>209</v>
       </c>
+      <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
+      <c r="AD28" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="AE28" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF28" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="AG28" s="3" t="s">
+      <c r="AF28" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="AH28" s="1"/>
+      <c r="AG28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:AH2"/>
+    <mergeCell ref="B2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19911,38 +19910,38 @@
   <dimension ref="B2:AG28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF29" sqref="AF29"/>
+      <selection activeCell="AK18" sqref="AK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="2.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="4.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="4.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="2.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="4.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="2.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.25" customWidth="1"/>
     <col min="20" max="20" width="12.5" customWidth="1"/>
     <col min="21" max="21" width="2.5" customWidth="1"/>
-    <col min="23" max="23" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.25" customWidth="1"/>
     <col min="24" max="24" width="12.5" customWidth="1"/>
     <col min="25" max="25" width="2.5" customWidth="1"/>
-    <col min="27" max="27" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.25" customWidth="1"/>
     <col min="28" max="28" width="12.5" customWidth="1"/>
     <col min="29" max="29" width="2.5" customWidth="1"/>
-    <col min="31" max="31" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.25" customWidth="1"/>
     <col min="32" max="32" width="12.5" customWidth="1"/>
     <col min="33" max="33" width="2.5" customWidth="1"/>
   </cols>
